--- a/Results/xlsx/RS230014BOS01.xlsx
+++ b/Results/xlsx/RS230014BOS01.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1317,7 +1317,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">       7183</t>
+          <t xml:space="preserve">       7263</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1352,19 +1352,19 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.24                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.25                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-24</t>
+          <t xml:space="preserve">      2021-02-25</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">       7184</t>
+          <t xml:space="preserve">       7264</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1399,19 +1399,19 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.24                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.25                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-24</t>
+          <t xml:space="preserve">      2021-02-25</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">       5658</t>
+          <t xml:space="preserve">       7337</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1446,19 +1446,19 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.16                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.25                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-16</t>
+          <t xml:space="preserve">      2021-02-25</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">       5659</t>
+          <t xml:space="preserve">       7338</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1493,19 +1493,19 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.16                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.25                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-16</t>
+          <t xml:space="preserve">      2021-02-25</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">       5738</t>
+          <t xml:space="preserve">       7183</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1540,19 +1540,19 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.17                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.24                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-17</t>
+          <t xml:space="preserve">      2021-02-24</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">       5739</t>
+          <t xml:space="preserve">       7184</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1587,19 +1587,19 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.17                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.24                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-17</t>
+          <t xml:space="preserve">      2021-02-24</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">       5870</t>
+          <t xml:space="preserve">       7404</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1634,19 +1634,19 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.17                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.26                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-17</t>
+          <t xml:space="preserve">      2021-02-26</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">       5871</t>
+          <t xml:space="preserve">       7405</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1681,19 +1681,19 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.17                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.26                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-17</t>
+          <t xml:space="preserve">      2021-02-26</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">       5950</t>
+          <t xml:space="preserve">       7489</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1728,19 +1728,19 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.18                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.26                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-18</t>
+          <t xml:space="preserve">      2021-02-26</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">       5951</t>
+          <t xml:space="preserve">       7490</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1775,19 +1775,19 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.18                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.26                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-18</t>
+          <t xml:space="preserve">      2021-02-26</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">       6082</t>
+          <t xml:space="preserve">       7543</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.18                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.27                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-18</t>
+          <t xml:space="preserve">      2021-02-27</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">       6083</t>
+          <t xml:space="preserve">       7544</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1869,19 +1869,19 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.18                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.27                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-18</t>
+          <t xml:space="preserve">      2021-02-27</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">       4485</t>
+          <t xml:space="preserve">       7675</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1916,19 +1916,19 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.14                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.27                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-14</t>
+          <t xml:space="preserve">      2021-02-27</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">       4486</t>
+          <t xml:space="preserve">       7676</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1963,19 +1963,19 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.14                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.27                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-14</t>
+          <t xml:space="preserve">      2021-02-27</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">       4697</t>
+          <t xml:space="preserve">       5658</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2010,19 +2010,19 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.15                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.16                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-15</t>
+          <t xml:space="preserve">      2021-02-16</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">       4698</t>
+          <t xml:space="preserve">       5659</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2057,19 +2057,19 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.15                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.16                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-15</t>
+          <t xml:space="preserve">      2021-02-16</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">       5539</t>
+          <t xml:space="preserve">       5738</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2104,19 +2104,19 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.16                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.17                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-16</t>
+          <t xml:space="preserve">      2021-02-17</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">       5540</t>
+          <t xml:space="preserve">       5739</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2151,19 +2151,19 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.16                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.17                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-16</t>
+          <t xml:space="preserve">      2021-02-17</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">       6162</t>
+          <t xml:space="preserve">       5870</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2198,19 +2198,19 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.19                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.17                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-19</t>
+          <t xml:space="preserve">      2021-02-17</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">       6163</t>
+          <t xml:space="preserve">       5871</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2245,19 +2245,19 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.19                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.17                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-19</t>
+          <t xml:space="preserve">      2021-02-17</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">       6284</t>
+          <t xml:space="preserve">       5950</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2292,19 +2292,19 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.19                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.18                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-19</t>
+          <t xml:space="preserve">      2021-02-18</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">       6285</t>
+          <t xml:space="preserve">       5951</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2339,19 +2339,19 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.19                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.18                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-19</t>
+          <t xml:space="preserve">      2021-02-18</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">       6364</t>
+          <t xml:space="preserve">       6082</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2386,19 +2386,19 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.20                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.18                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-20</t>
+          <t xml:space="preserve">      2021-02-18</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">       6365</t>
+          <t xml:space="preserve">       6083</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2433,19 +2433,19 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.20                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.18                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-20</t>
+          <t xml:space="preserve">      2021-02-18</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">       6576</t>
+          <t xml:space="preserve">       8915</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2480,19 +2480,19 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.21                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.03.01                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-21</t>
+          <t xml:space="preserve">      2021-03-01</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">       6577</t>
+          <t xml:space="preserve">       8916</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2527,19 +2527,19 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.21                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.03.01                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-21</t>
+          <t xml:space="preserve">      2021-03-01</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">       6775</t>
+          <t xml:space="preserve">       9037</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2574,19 +2574,19 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.22                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.03.01                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-22</t>
+          <t xml:space="preserve">      2021-03-01</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">       6776</t>
+          <t xml:space="preserve">       9038</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.22                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.03.01                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-22</t>
+          <t xml:space="preserve">      2021-03-01</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">       6496</t>
+          <t xml:space="preserve">       4485</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2668,19 +2668,19 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.20                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.14                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-20</t>
+          <t xml:space="preserve">      2021-02-14</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">       6497</t>
+          <t xml:space="preserve">       4486</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2715,19 +2715,19 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.20                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.14                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-20</t>
+          <t xml:space="preserve">      2021-02-14</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">       6708</t>
+          <t xml:space="preserve">       4697</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2762,19 +2762,19 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.21                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.15                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-21</t>
+          <t xml:space="preserve">      2021-02-15</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">       6709</t>
+          <t xml:space="preserve">       4698</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2809,19 +2809,19 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.21                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.15                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-21</t>
+          <t xml:space="preserve">      2021-02-15</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">       6871</t>
+          <t xml:space="preserve">       5539</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2856,64 +2856,1004 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.22                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.16                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-22</t>
+          <t xml:space="preserve">      2021-02-16</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t xml:space="preserve">       5540</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.16                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6162</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.19                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6163</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.19                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6284</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.19                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6285</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.19                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6364</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.20                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6365</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.20                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6576</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.21                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6577</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.21                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6775</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.22                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6776</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.22                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6496</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.20                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6497</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.20                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6708</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.21                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6709</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.21                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6871</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.22                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
           <t xml:space="preserve">       6872</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>sa</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">       NULL</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">       NULL</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">         NULL</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">       NULL</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
         <is>
           <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t xml:space="preserve">No PL global price change data for the report date: 2021.02.22                                                                                                                                                                                                  </t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t xml:space="preserve">      2021-02-22</t>
         </is>
       </c>
     </row>
-    <row r="54"/>
-    <row r="55"/>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8716</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.28                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8717</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.28                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8835</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.28                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8836</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.28                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="74"/>
+    <row r="75"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
